--- a/usab/umfragen/analyse.xlsx
+++ b/usab/umfragen/analyse.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrille\Documents\GitHub\summaries\usab\umfragen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831D607-A4BF-41B9-B02E-61B09983D91E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4661BE44-5257-4391-BEE6-EAA81E37A006}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11220" activeTab="1" xr2:uid="{4D48CD8E-A442-4651-8F90-068B92B33997}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11220" activeTab="2" xr2:uid="{4D48CD8E-A442-4651-8F90-068B92B33997}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle6" sheetId="6" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="45">
   <si>
     <t>Geschlecht</t>
   </si>
@@ -220,6 +221,934 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Beim benutzen von Transportmitteln</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$G$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Transportmittel: Privatsphäre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transportmittel: Ruhe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transportmittel: Sauberkeit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transportmittel: Pünktlichkeit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Transportmittel: Geschwindigkeit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transportmittel: Flexibilität</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Transportmittel: Preis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Transportmittel: Zuverlässigkeit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Transportmittel: Sicherheit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Transportmittel: Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$G$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A876-4ED9-9CE6-1E931DB6FC52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="557958184"/>
+        <c:axId val="557959496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="557958184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557959496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557959496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557958184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>64293</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F000DB5-52FA-4659-854A-23B766BD7B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,7 +1467,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D5890C1-7104-49DC-BBF2-AE86066A39D5}" name="PivotTable10" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D5890C1-7104-49DC-BBF2-AE86066A39D5}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:BF6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -1617,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B2C855-B6C4-4934-BF18-4F0722ED992F}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2214,4 +3143,668 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8001A3C-6734-4681-A1C9-7C1BB2170D37}">
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>5</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>2.6</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" ref="C7:I7" si="0">AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7" si="1">AVERAGE(J2:J6)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7" si="2">AVERAGE(K2:K6)</f>
+        <v>3.4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="3">AVERAGE(L2:L6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7" si="4">AVERAGE(M2:M6)</f>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7" si="5">AVERAGE(N2:N6)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:P7" si="6">AVERAGE(O2:O6)</f>
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7" si="7">AVERAGE(Q2:Q6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7" si="8">AVERAGE(R2:R6)</f>
+        <v>3.6</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7" si="9">AVERAGE(S2:S6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7" si="10">AVERAGE(T2:T6)</f>
+        <v>3.8</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7" si="11">AVERAGE(U2:U6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:W7" si="12">AVERAGE(V2:V6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="12"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7" si="13">AVERAGE(X2:X6)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7" si="14">AVERAGE(Y2:Y6)</f>
+        <v>4.8</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7" si="15">AVERAGE(Z2:Z6)</f>
+        <v>4.8</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7" si="16">AVERAGE(AA2:AA6)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7" si="17">AVERAGE(AB2:AB6)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" ref="AC7" si="18">AVERAGE(AC2:AC6)</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>